--- a/data/befolkning_per_kommune.xlsx
+++ b/data/befolkning_per_kommune.xlsx
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">5025</t>
   </si>
   <si>
-    <t xml:space="preserve">Røros - Rossen</t>
+    <t xml:space="preserve">Røros - Rosse</t>
   </si>
   <si>
     <t xml:space="preserve">5026</t>
@@ -2510,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>717710</v>
+        <v>724290</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2521,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>15221</v>
+        <v>15375</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2532,7 +2532,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>149048</v>
+        <v>150123</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2543,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>38292</v>
+        <v>38441</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2554,7 +2554,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>83702</v>
+        <v>84908</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -2565,7 +2565,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>3347</v>
+        <v>3371</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -2576,7 +2576,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>3226</v>
+        <v>3259</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2587,7 +2587,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>2892</v>
+        <v>2905</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2598,7 +2598,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>19827</v>
+        <v>20067</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -2609,7 +2609,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>20900</v>
+        <v>21186</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -2620,7 +2620,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>19910</v>
+        <v>20157</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -2631,7 +2631,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>12362</v>
+        <v>12536</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2642,7 +2642,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>28685</v>
+        <v>29153</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2653,7 +2653,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>11742</v>
+        <v>11795</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -2664,7 +2664,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>13703</v>
+        <v>13813</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -2675,7 +2675,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>2643</v>
+        <v>2681</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -2686,7 +2686,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>3889</v>
+        <v>3939</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -2697,7 +2697,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>4572</v>
+        <v>4600</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -2708,7 +2708,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="n">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -2719,7 +2719,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="n">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -2730,7 +2730,7 @@
         <v>43</v>
       </c>
       <c r="B22" t="n">
-        <v>11570</v>
+        <v>11715</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2741,7 +2741,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>43306</v>
+        <v>43723</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
@@ -2752,7 +2752,7 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
@@ -2763,7 +2763,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>8938</v>
+        <v>9069</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -2774,7 +2774,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="n">
-        <v>24404</v>
+        <v>24578</v>
       </c>
       <c r="C26" t="s">
         <v>52</v>
@@ -2785,7 +2785,7 @@
         <v>53</v>
       </c>
       <c r="B27" t="n">
-        <v>32816</v>
+        <v>33163</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
@@ -2796,7 +2796,7 @@
         <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>58509</v>
+        <v>59198</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
@@ -2807,7 +2807,7 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>3026</v>
+        <v>3048</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
@@ -2818,7 +2818,7 @@
         <v>59</v>
       </c>
       <c r="B30" t="n">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
@@ -2829,7 +2829,7 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>8968</v>
+        <v>9031</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -2840,7 +2840,7 @@
         <v>63</v>
       </c>
       <c r="B32" t="n">
-        <v>8861</v>
+        <v>8862</v>
       </c>
       <c r="C32" t="s">
         <v>64</v>
@@ -2851,7 +2851,7 @@
         <v>65</v>
       </c>
       <c r="B33" t="n">
-        <v>5322</v>
+        <v>5320</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -2862,7 +2862,7 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>10958</v>
+        <v>11055</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -2873,7 +2873,7 @@
         <v>69</v>
       </c>
       <c r="B35" t="n">
-        <v>4348</v>
+        <v>4380</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
@@ -2884,7 +2884,7 @@
         <v>71</v>
       </c>
       <c r="B36" t="n">
-        <v>7617</v>
+        <v>7626</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -2895,7 +2895,7 @@
         <v>73</v>
       </c>
       <c r="B37" t="n">
-        <v>9720</v>
+        <v>9759</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
@@ -2906,7 +2906,7 @@
         <v>75</v>
       </c>
       <c r="B38" t="n">
-        <v>8691</v>
+        <v>8773</v>
       </c>
       <c r="C38" t="s">
         <v>76</v>
@@ -2917,7 +2917,7 @@
         <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>7147</v>
+        <v>7242</v>
       </c>
       <c r="C39" t="s">
         <v>78</v>
@@ -2928,7 +2928,7 @@
         <v>79</v>
       </c>
       <c r="B40" t="n">
-        <v>7299</v>
+        <v>7196</v>
       </c>
       <c r="C40" t="s">
         <v>80</v>
@@ -2939,7 +2939,7 @@
         <v>81</v>
       </c>
       <c r="B41" t="n">
-        <v>3678</v>
+        <v>3759</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
@@ -2950,7 +2950,7 @@
         <v>83</v>
       </c>
       <c r="B42" t="n">
-        <v>5955</v>
+        <v>5992</v>
       </c>
       <c r="C42" t="s">
         <v>84</v>
@@ -2961,7 +2961,7 @@
         <v>85</v>
       </c>
       <c r="B43" t="n">
-        <v>2700</v>
+        <v>2708</v>
       </c>
       <c r="C43" t="s">
         <v>86</v>
@@ -2972,7 +2972,7 @@
         <v>87</v>
       </c>
       <c r="B44" t="n">
-        <v>3041</v>
+        <v>3077</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
@@ -2983,7 +2983,7 @@
         <v>89</v>
       </c>
       <c r="B45" t="n">
-        <v>7227</v>
+        <v>7193</v>
       </c>
       <c r="C45" t="s">
         <v>90</v>
@@ -2994,7 +2994,7 @@
         <v>91</v>
       </c>
       <c r="B46" t="n">
-        <v>5953</v>
+        <v>5950</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
@@ -3005,7 +3005,7 @@
         <v>93</v>
       </c>
       <c r="B47" t="n">
-        <v>2159</v>
+        <v>2168</v>
       </c>
       <c r="C47" t="s">
         <v>94</v>
@@ -3016,7 +3016,7 @@
         <v>95</v>
       </c>
       <c r="B48" t="n">
-        <v>3408</v>
+        <v>3394</v>
       </c>
       <c r="C48" t="s">
         <v>96</v>
@@ -3027,7 +3027,7 @@
         <v>97</v>
       </c>
       <c r="B49" t="n">
-        <v>11093</v>
+        <v>11131</v>
       </c>
       <c r="C49" t="s">
         <v>98</v>
@@ -3038,7 +3038,7 @@
         <v>99</v>
       </c>
       <c r="B50" t="n">
-        <v>2492</v>
+        <v>2506</v>
       </c>
       <c r="C50" t="s">
         <v>100</v>
@@ -3049,7 +3049,7 @@
         <v>101</v>
       </c>
       <c r="B51" t="n">
-        <v>13437</v>
+        <v>13460</v>
       </c>
       <c r="C51" t="s">
         <v>102</v>
@@ -3060,7 +3060,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="n">
-        <v>9357</v>
+        <v>9409</v>
       </c>
       <c r="C52" t="s">
         <v>104</v>
@@ -3071,7 +3071,7 @@
         <v>105</v>
       </c>
       <c r="B53" t="n">
-        <v>53712</v>
+        <v>53725</v>
       </c>
       <c r="C53" t="s">
         <v>106</v>
@@ -3082,7 +3082,7 @@
         <v>107</v>
       </c>
       <c r="B54" t="n">
-        <v>21580</v>
+        <v>21591</v>
       </c>
       <c r="C54" t="s">
         <v>108</v>
@@ -3093,7 +3093,7 @@
         <v>109</v>
       </c>
       <c r="B55" t="n">
-        <v>1399</v>
+        <v>1374</v>
       </c>
       <c r="C55" t="s">
         <v>110</v>
@@ -3104,7 +3104,7 @@
         <v>111</v>
       </c>
       <c r="B56" t="n">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="C56" t="s">
         <v>112</v>
@@ -3115,7 +3115,7 @@
         <v>113</v>
       </c>
       <c r="B57" t="n">
-        <v>7826</v>
+        <v>7838</v>
       </c>
       <c r="C57" t="s">
         <v>114</v>
@@ -3126,7 +3126,7 @@
         <v>115</v>
       </c>
       <c r="B58" t="n">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C58" t="s">
         <v>116</v>
@@ -3137,7 +3137,7 @@
         <v>117</v>
       </c>
       <c r="B59" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C59" t="s">
         <v>118</v>
@@ -3148,7 +3148,7 @@
         <v>119</v>
       </c>
       <c r="B60" t="n">
-        <v>1842</v>
+        <v>1888</v>
       </c>
       <c r="C60" t="s">
         <v>120</v>
@@ -3159,7 +3159,7 @@
         <v>121</v>
       </c>
       <c r="B61" t="n">
-        <v>7421</v>
+        <v>7465</v>
       </c>
       <c r="C61" t="s">
         <v>122</v>
@@ -3170,7 +3170,7 @@
         <v>123</v>
       </c>
       <c r="B62" t="n">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="C62" t="s">
         <v>124</v>
@@ -3181,7 +3181,7 @@
         <v>125</v>
       </c>
       <c r="B63" t="n">
-        <v>13469</v>
+        <v>13475</v>
       </c>
       <c r="C63" t="s">
         <v>126</v>
@@ -3192,7 +3192,7 @@
         <v>127</v>
       </c>
       <c r="B64" t="n">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="C64" t="s">
         <v>128</v>
@@ -3203,7 +3203,7 @@
         <v>129</v>
       </c>
       <c r="B65" t="n">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="C65" t="s">
         <v>130</v>
@@ -3214,7 +3214,7 @@
         <v>131</v>
       </c>
       <c r="B66" t="n">
-        <v>1427</v>
+        <v>1447</v>
       </c>
       <c r="C66" t="s">
         <v>132</v>
@@ -3225,7 +3225,7 @@
         <v>133</v>
       </c>
       <c r="B67" t="n">
-        <v>1808</v>
+        <v>1770</v>
       </c>
       <c r="C67" t="s">
         <v>134</v>
@@ -3247,7 +3247,7 @@
         <v>137</v>
       </c>
       <c r="B69" t="n">
-        <v>25994</v>
+        <v>25927</v>
       </c>
       <c r="C69" t="s">
         <v>138</v>
@@ -3258,7 +3258,7 @@
         <v>139</v>
       </c>
       <c r="B70" t="n">
-        <v>1886</v>
+        <v>1948</v>
       </c>
       <c r="C70" t="s">
         <v>140</v>
@@ -3269,7 +3269,7 @@
         <v>141</v>
       </c>
       <c r="B71" t="n">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="C71" t="s">
         <v>142</v>
@@ -3280,7 +3280,7 @@
         <v>143</v>
       </c>
       <c r="B72" t="n">
-        <v>1139</v>
+        <v>1160</v>
       </c>
       <c r="C72" t="s">
         <v>144</v>
@@ -3291,7 +3291,7 @@
         <v>145</v>
       </c>
       <c r="B73" t="n">
-        <v>6180</v>
+        <v>6104</v>
       </c>
       <c r="C73" t="s">
         <v>146</v>
@@ -3302,7 +3302,7 @@
         <v>147</v>
       </c>
       <c r="B74" t="n">
-        <v>1958</v>
+        <v>2003</v>
       </c>
       <c r="C74" t="s">
         <v>148</v>
@@ -3313,7 +3313,7 @@
         <v>149</v>
       </c>
       <c r="B75" t="n">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
@@ -3324,7 +3324,7 @@
         <v>151</v>
       </c>
       <c r="B76" t="n">
-        <v>4880</v>
+        <v>4822</v>
       </c>
       <c r="C76" t="s">
         <v>152</v>
@@ -3335,7 +3335,7 @@
         <v>153</v>
       </c>
       <c r="B77" t="n">
-        <v>9827</v>
+        <v>9805</v>
       </c>
       <c r="C77" t="s">
         <v>154</v>
@@ -3346,7 +3346,7 @@
         <v>155</v>
       </c>
       <c r="B78" t="n">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="C78" t="s">
         <v>156</v>
@@ -3357,7 +3357,7 @@
         <v>157</v>
       </c>
       <c r="B79" t="n">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="C79" t="s">
         <v>158</v>
@@ -3368,7 +3368,7 @@
         <v>159</v>
       </c>
       <c r="B80" t="n">
-        <v>2060</v>
+        <v>2067</v>
       </c>
       <c r="C80" t="s">
         <v>160</v>
@@ -3379,7 +3379,7 @@
         <v>161</v>
       </c>
       <c r="B81" t="n">
-        <v>1330</v>
+        <v>1362</v>
       </c>
       <c r="C81" t="s">
         <v>162</v>
@@ -3390,7 +3390,7 @@
         <v>163</v>
       </c>
       <c r="B82" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C82" t="s">
         <v>164</v>
@@ -3401,7 +3401,7 @@
         <v>165</v>
       </c>
       <c r="B83" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C83" t="s">
         <v>166</v>
@@ -3412,7 +3412,7 @@
         <v>167</v>
       </c>
       <c r="B84" t="n">
-        <v>1229</v>
+        <v>1266</v>
       </c>
       <c r="C84" t="s">
         <v>168</v>
@@ -3423,7 +3423,7 @@
         <v>169</v>
       </c>
       <c r="B85" t="n">
-        <v>11619</v>
+        <v>11582</v>
       </c>
       <c r="C85" t="s">
         <v>170</v>
@@ -3434,7 +3434,7 @@
         <v>171</v>
       </c>
       <c r="B86" t="n">
-        <v>9793</v>
+        <v>9871</v>
       </c>
       <c r="C86" t="s">
         <v>172</v>
@@ -3445,7 +3445,7 @@
         <v>173</v>
       </c>
       <c r="B87" t="n">
-        <v>8236</v>
+        <v>8400</v>
       </c>
       <c r="C87" t="s">
         <v>174</v>
@@ -3456,7 +3456,7 @@
         <v>175</v>
       </c>
       <c r="B88" t="n">
-        <v>2634</v>
+        <v>2617</v>
       </c>
       <c r="C88" t="s">
         <v>176</v>
@@ -3467,7 +3467,7 @@
         <v>177</v>
       </c>
       <c r="B89" t="n">
-        <v>4569</v>
+        <v>4628</v>
       </c>
       <c r="C89" t="s">
         <v>178</v>
@@ -3478,7 +3478,7 @@
         <v>179</v>
       </c>
       <c r="B90" t="n">
-        <v>10618</v>
+        <v>10781</v>
       </c>
       <c r="C90" t="s">
         <v>180</v>
@@ -3489,7 +3489,7 @@
         <v>181</v>
       </c>
       <c r="B91" t="n">
-        <v>4553</v>
+        <v>4542</v>
       </c>
       <c r="C91" t="s">
         <v>182</v>
@@ -3500,7 +3500,7 @@
         <v>183</v>
       </c>
       <c r="B92" t="n">
-        <v>954</v>
+        <v>969</v>
       </c>
       <c r="C92" t="s">
         <v>184</v>
@@ -3511,7 +3511,7 @@
         <v>185</v>
       </c>
       <c r="B93" t="n">
-        <v>2729</v>
+        <v>2786</v>
       </c>
       <c r="C93" t="s">
         <v>186</v>
@@ -3522,7 +3522,7 @@
         <v>187</v>
       </c>
       <c r="B94" t="n">
-        <v>31935</v>
+        <v>32038</v>
       </c>
       <c r="C94" t="s">
         <v>188</v>
@@ -3533,7 +3533,7 @@
         <v>189</v>
       </c>
       <c r="B95" t="n">
-        <v>52051</v>
+        <v>52646</v>
       </c>
       <c r="C95" t="s">
         <v>190</v>
@@ -3544,7 +3544,7 @@
         <v>191</v>
       </c>
       <c r="B96" t="n">
-        <v>59771</v>
+        <v>60139</v>
       </c>
       <c r="C96" t="s">
         <v>192</v>
@@ -3555,7 +3555,7 @@
         <v>193</v>
       </c>
       <c r="B97" t="n">
-        <v>85230</v>
+        <v>85862</v>
       </c>
       <c r="C97" t="s">
         <v>194</v>
@@ -3566,7 +3566,7 @@
         <v>195</v>
       </c>
       <c r="B98" t="n">
-        <v>4787</v>
+        <v>4777</v>
       </c>
       <c r="C98" t="s">
         <v>196</v>
@@ -3577,7 +3577,7 @@
         <v>197</v>
       </c>
       <c r="B99" t="n">
-        <v>7883</v>
+        <v>7850</v>
       </c>
       <c r="C99" t="s">
         <v>198</v>
@@ -3588,7 +3588,7 @@
         <v>199</v>
       </c>
       <c r="B100" t="n">
-        <v>6145</v>
+        <v>6162</v>
       </c>
       <c r="C100" t="s">
         <v>200</v>
@@ -3599,7 +3599,7 @@
         <v>201</v>
       </c>
       <c r="B101" t="n">
-        <v>3919</v>
+        <v>3956</v>
       </c>
       <c r="C101" t="s">
         <v>202</v>
@@ -3610,7 +3610,7 @@
         <v>203</v>
       </c>
       <c r="B102" t="n">
-        <v>47006</v>
+        <v>47449</v>
       </c>
       <c r="C102" t="s">
         <v>204</v>
@@ -3621,7 +3621,7 @@
         <v>205</v>
       </c>
       <c r="B103" t="n">
-        <v>8420</v>
+        <v>8527</v>
       </c>
       <c r="C103" t="s">
         <v>206</v>
@@ -3632,7 +3632,7 @@
         <v>207</v>
       </c>
       <c r="B104" t="n">
-        <v>3658</v>
+        <v>3655</v>
       </c>
       <c r="C104" t="s">
         <v>208</v>
@@ -3643,7 +3643,7 @@
         <v>209</v>
       </c>
       <c r="B105" t="n">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C105" t="s">
         <v>210</v>
@@ -3654,7 +3654,7 @@
         <v>211</v>
       </c>
       <c r="B106" t="n">
-        <v>130921</v>
+        <v>132358</v>
       </c>
       <c r="C106" t="s">
         <v>212</v>
@@ -3665,7 +3665,7 @@
         <v>213</v>
       </c>
       <c r="B107" t="n">
-        <v>98815</v>
+        <v>100492</v>
       </c>
       <c r="C107" t="s">
         <v>214</v>
@@ -3676,7 +3676,7 @@
         <v>215</v>
       </c>
       <c r="B108" t="n">
-        <v>94201</v>
+        <v>95762</v>
       </c>
       <c r="C108" t="s">
         <v>216</v>
@@ -3687,7 +3687,7 @@
         <v>217</v>
       </c>
       <c r="B109" t="n">
-        <v>63560</v>
+        <v>64668</v>
       </c>
       <c r="C109" t="s">
         <v>218</v>
@@ -3698,7 +3698,7 @@
         <v>219</v>
       </c>
       <c r="B110" t="n">
-        <v>43814</v>
+        <v>45066</v>
       </c>
       <c r="C110" t="s">
         <v>220</v>
@@ -3709,7 +3709,7 @@
         <v>221</v>
       </c>
       <c r="B111" t="n">
-        <v>20521</v>
+        <v>20698</v>
       </c>
       <c r="C111" t="s">
         <v>222</v>
@@ -3720,7 +3720,7 @@
         <v>223</v>
       </c>
       <c r="B112" t="n">
-        <v>16244</v>
+        <v>16337</v>
       </c>
       <c r="C112" t="s">
         <v>224</v>
@@ -3731,7 +3731,7 @@
         <v>225</v>
       </c>
       <c r="B113" t="n">
-        <v>19493</v>
+        <v>19855</v>
       </c>
       <c r="C113" t="s">
         <v>226</v>
@@ -3742,7 +3742,7 @@
         <v>227</v>
       </c>
       <c r="B114" t="n">
-        <v>22005</v>
+        <v>22344</v>
       </c>
       <c r="C114" t="s">
         <v>228</v>
@@ -3753,7 +3753,7 @@
         <v>229</v>
       </c>
       <c r="B115" t="n">
-        <v>11482</v>
+        <v>11549</v>
       </c>
       <c r="C115" t="s">
         <v>230</v>
@@ -3764,7 +3764,7 @@
         <v>231</v>
       </c>
       <c r="B116" t="n">
-        <v>48188</v>
+        <v>50013</v>
       </c>
       <c r="C116" t="s">
         <v>232</v>
@@ -3775,7 +3775,7 @@
         <v>233</v>
       </c>
       <c r="B117" t="n">
-        <v>20099</v>
+        <v>20509</v>
       </c>
       <c r="C117" t="s">
         <v>234</v>
@@ -3786,7 +3786,7 @@
         <v>235</v>
       </c>
       <c r="B118" t="n">
-        <v>18058</v>
+        <v>18314</v>
       </c>
       <c r="C118" t="s">
         <v>236</v>
@@ -3797,7 +3797,7 @@
         <v>237</v>
       </c>
       <c r="B119" t="n">
-        <v>24645</v>
+        <v>24897</v>
       </c>
       <c r="C119" t="s">
         <v>238</v>
@@ -3808,7 +3808,7 @@
         <v>239</v>
       </c>
       <c r="B120" t="n">
-        <v>7398</v>
+        <v>7453</v>
       </c>
       <c r="C120" t="s">
         <v>240</v>
@@ -3819,7 +3819,7 @@
         <v>241</v>
       </c>
       <c r="B121" t="n">
-        <v>25882</v>
+        <v>26023</v>
       </c>
       <c r="C121" t="s">
         <v>242</v>
@@ -3830,7 +3830,7 @@
         <v>243</v>
       </c>
       <c r="B122" t="n">
-        <v>9357</v>
+        <v>9420</v>
       </c>
       <c r="C122" t="s">
         <v>244</v>
@@ -3841,7 +3841,7 @@
         <v>245</v>
       </c>
       <c r="B123" t="n">
-        <v>7037</v>
+        <v>7043</v>
       </c>
       <c r="C123" t="s">
         <v>246</v>
@@ -3852,7 +3852,7 @@
         <v>247</v>
       </c>
       <c r="B124" t="n">
-        <v>16126</v>
+        <v>16505</v>
       </c>
       <c r="C124" t="s">
         <v>248</v>
@@ -3863,7 +3863,7 @@
         <v>249</v>
       </c>
       <c r="B125" t="n">
-        <v>27916</v>
+        <v>28352</v>
       </c>
       <c r="C125" t="s">
         <v>250</v>
@@ -3874,7 +3874,7 @@
         <v>251</v>
       </c>
       <c r="B126" t="n">
-        <v>3041</v>
+        <v>3022</v>
       </c>
       <c r="C126" t="s">
         <v>252</v>
@@ -3885,7 +3885,7 @@
         <v>253</v>
       </c>
       <c r="B127" t="n">
-        <v>104487</v>
+        <v>105452</v>
       </c>
       <c r="C127" t="s">
         <v>254</v>
@@ -3896,7 +3896,7 @@
         <v>255</v>
       </c>
       <c r="B128" t="n">
-        <v>28848</v>
+        <v>29011</v>
       </c>
       <c r="C128" t="s">
         <v>256</v>
@@ -3907,7 +3907,7 @@
         <v>257</v>
       </c>
       <c r="B129" t="n">
-        <v>31581</v>
+        <v>31793</v>
       </c>
       <c r="C129" t="s">
         <v>258</v>
@@ -3918,7 +3918,7 @@
         <v>259</v>
       </c>
       <c r="B130" t="n">
-        <v>6989</v>
+        <v>7065</v>
       </c>
       <c r="C130" t="s">
         <v>260</v>
@@ -3929,7 +3929,7 @@
         <v>261</v>
       </c>
       <c r="B131" t="n">
-        <v>28470</v>
+        <v>28642</v>
       </c>
       <c r="C131" t="s">
         <v>262</v>
@@ -3940,7 +3940,7 @@
         <v>263</v>
       </c>
       <c r="B132" t="n">
-        <v>20779</v>
+        <v>20861</v>
       </c>
       <c r="C132" t="s">
         <v>264</v>
@@ -3951,7 +3951,7 @@
         <v>265</v>
       </c>
       <c r="B133" t="n">
-        <v>14665</v>
+        <v>14664</v>
       </c>
       <c r="C133" t="s">
         <v>266</v>
@@ -3962,7 +3962,7 @@
         <v>267</v>
       </c>
       <c r="B134" t="n">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="C134" t="s">
         <v>268</v>
@@ -3973,7 +3973,7 @@
         <v>269</v>
       </c>
       <c r="B135" t="n">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C135" t="s">
         <v>270</v>
@@ -3984,7 +3984,7 @@
         <v>271</v>
       </c>
       <c r="B136" t="n">
-        <v>3301</v>
+        <v>3266</v>
       </c>
       <c r="C136" t="s">
         <v>272</v>
@@ -3995,7 +3995,7 @@
         <v>273</v>
       </c>
       <c r="B137" t="n">
-        <v>4986</v>
+        <v>4888</v>
       </c>
       <c r="C137" t="s">
         <v>274</v>
@@ -4006,7 +4006,7 @@
         <v>275</v>
       </c>
       <c r="B138" t="n">
-        <v>2666</v>
+        <v>2685</v>
       </c>
       <c r="C138" t="s">
         <v>276</v>
@@ -4017,7 +4017,7 @@
         <v>277</v>
       </c>
       <c r="B139" t="n">
-        <v>5007</v>
+        <v>4835</v>
       </c>
       <c r="C139" t="s">
         <v>278</v>
@@ -4028,7 +4028,7 @@
         <v>279</v>
       </c>
       <c r="B140" t="n">
-        <v>4496</v>
+        <v>4527</v>
       </c>
       <c r="C140" t="s">
         <v>280</v>
@@ -4039,7 +4039,7 @@
         <v>281</v>
       </c>
       <c r="B141" t="n">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="C141" t="s">
         <v>282</v>
@@ -4050,7 +4050,7 @@
         <v>283</v>
       </c>
       <c r="B142" t="n">
-        <v>2781</v>
+        <v>2797</v>
       </c>
       <c r="C142" t="s">
         <v>284</v>
@@ -4061,7 +4061,7 @@
         <v>285</v>
       </c>
       <c r="B143" t="n">
-        <v>1395</v>
+        <v>1414</v>
       </c>
       <c r="C143" t="s">
         <v>286</v>
@@ -4072,7 +4072,7 @@
         <v>287</v>
       </c>
       <c r="B144" t="n">
-        <v>2486</v>
+        <v>2466</v>
       </c>
       <c r="C144" t="s">
         <v>288</v>
@@ -4083,7 +4083,7 @@
         <v>289</v>
       </c>
       <c r="B145" t="n">
-        <v>18058</v>
+        <v>18109</v>
       </c>
       <c r="C145" t="s">
         <v>290</v>
@@ -4094,7 +4094,7 @@
         <v>291</v>
       </c>
       <c r="B146" t="n">
-        <v>32879</v>
+        <v>33441</v>
       </c>
       <c r="C146" t="s">
         <v>292</v>
@@ -4105,7 +4105,7 @@
         <v>293</v>
       </c>
       <c r="B147" t="n">
-        <v>28768</v>
+        <v>29011</v>
       </c>
       <c r="C147" t="s">
         <v>294</v>
@@ -4116,7 +4116,7 @@
         <v>295</v>
       </c>
       <c r="B148" t="n">
-        <v>30903</v>
+        <v>31175</v>
       </c>
       <c r="C148" t="s">
         <v>296</v>
@@ -4127,7 +4127,7 @@
         <v>297</v>
       </c>
       <c r="B149" t="n">
-        <v>35612</v>
+        <v>35911</v>
       </c>
       <c r="C149" t="s">
         <v>298</v>
@@ -4138,7 +4138,7 @@
         <v>299</v>
       </c>
       <c r="B150" t="n">
-        <v>7929</v>
+        <v>7931</v>
       </c>
       <c r="C150" t="s">
         <v>300</v>
@@ -4149,7 +4149,7 @@
         <v>301</v>
       </c>
       <c r="B151" t="n">
-        <v>21605</v>
+        <v>21691</v>
       </c>
       <c r="C151" t="s">
         <v>302</v>
@@ -4160,7 +4160,7 @@
         <v>303</v>
       </c>
       <c r="B152" t="n">
-        <v>4992</v>
+        <v>5006</v>
       </c>
       <c r="C152" t="s">
         <v>304</v>
@@ -4171,7 +4171,7 @@
         <v>305</v>
       </c>
       <c r="B153" t="n">
-        <v>8112</v>
+        <v>8150</v>
       </c>
       <c r="C153" t="s">
         <v>306</v>
@@ -4182,7 +4182,7 @@
         <v>307</v>
       </c>
       <c r="B154" t="n">
-        <v>6040</v>
+        <v>6059</v>
       </c>
       <c r="C154" t="s">
         <v>308</v>
@@ -4193,7 +4193,7 @@
         <v>309</v>
       </c>
       <c r="B155" t="n">
-        <v>4532</v>
+        <v>4513</v>
       </c>
       <c r="C155" t="s">
         <v>310</v>
@@ -4204,7 +4204,7 @@
         <v>311</v>
       </c>
       <c r="B156" t="n">
-        <v>7339</v>
+        <v>7247</v>
       </c>
       <c r="C156" t="s">
         <v>312</v>
@@ -4215,7 +4215,7 @@
         <v>313</v>
       </c>
       <c r="B157" t="n">
-        <v>3615</v>
+        <v>3559</v>
       </c>
       <c r="C157" t="s">
         <v>314</v>
@@ -4226,7 +4226,7 @@
         <v>315</v>
       </c>
       <c r="B158" t="n">
-        <v>21761</v>
+        <v>21899</v>
       </c>
       <c r="C158" t="s">
         <v>316</v>
@@ -4237,7 +4237,7 @@
         <v>317</v>
       </c>
       <c r="B159" t="n">
-        <v>6566</v>
+        <v>6542</v>
       </c>
       <c r="C159" t="s">
         <v>318</v>
@@ -4248,7 +4248,7 @@
         <v>319</v>
       </c>
       <c r="B160" t="n">
-        <v>4289</v>
+        <v>4205</v>
       </c>
       <c r="C160" t="s">
         <v>320</v>
@@ -4259,7 +4259,7 @@
         <v>321</v>
       </c>
       <c r="B161" t="n">
-        <v>2276</v>
+        <v>2250</v>
       </c>
       <c r="C161" t="s">
         <v>322</v>
@@ -4270,7 +4270,7 @@
         <v>323</v>
       </c>
       <c r="B162" t="n">
-        <v>1837</v>
+        <v>1846</v>
       </c>
       <c r="C162" t="s">
         <v>324</v>
@@ -4281,7 +4281,7 @@
         <v>325</v>
       </c>
       <c r="B163" t="n">
-        <v>1361</v>
+        <v>1326</v>
       </c>
       <c r="C163" t="s">
         <v>326</v>
@@ -4292,7 +4292,7 @@
         <v>327</v>
       </c>
       <c r="B164" t="n">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C164" t="s">
         <v>328</v>
@@ -4303,7 +4303,7 @@
         <v>329</v>
       </c>
       <c r="B165" t="n">
-        <v>5692</v>
+        <v>5722</v>
       </c>
       <c r="C165" t="s">
         <v>330</v>
@@ -4314,7 +4314,7 @@
         <v>331</v>
       </c>
       <c r="B166" t="n">
-        <v>2526</v>
+        <v>2509</v>
       </c>
       <c r="C166" t="s">
         <v>332</v>
@@ -4325,7 +4325,7 @@
         <v>333</v>
       </c>
       <c r="B167" t="n">
-        <v>1532</v>
+        <v>1540</v>
       </c>
       <c r="C167" t="s">
         <v>334</v>
@@ -4336,7 +4336,7 @@
         <v>335</v>
       </c>
       <c r="B168" t="n">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="C168" t="s">
         <v>336</v>
@@ -4347,7 +4347,7 @@
         <v>337</v>
       </c>
       <c r="B169" t="n">
-        <v>2503</v>
+        <v>2516</v>
       </c>
       <c r="C169" t="s">
         <v>338</v>
@@ -4358,7 +4358,7 @@
         <v>339</v>
       </c>
       <c r="B170" t="n">
-        <v>1983</v>
+        <v>2006</v>
       </c>
       <c r="C170" t="s">
         <v>340</v>
@@ -4369,7 +4369,7 @@
         <v>341</v>
       </c>
       <c r="B171" t="n">
-        <v>2141</v>
+        <v>2179</v>
       </c>
       <c r="C171" t="s">
         <v>342</v>
@@ -4380,7 +4380,7 @@
         <v>343</v>
       </c>
       <c r="B172" t="n">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="C172" t="s">
         <v>344</v>
@@ -4391,7 +4391,7 @@
         <v>345</v>
       </c>
       <c r="B173" t="n">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="C173" t="s">
         <v>346</v>
@@ -4402,7 +4402,7 @@
         <v>347</v>
       </c>
       <c r="B174" t="n">
-        <v>5586</v>
+        <v>5553</v>
       </c>
       <c r="C174" t="s">
         <v>348</v>
@@ -4413,7 +4413,7 @@
         <v>349</v>
       </c>
       <c r="B175" t="n">
-        <v>5756</v>
+        <v>5623</v>
       </c>
       <c r="C175" t="s">
         <v>350</v>
@@ -4424,7 +4424,7 @@
         <v>351</v>
       </c>
       <c r="B176" t="n">
-        <v>3119</v>
+        <v>3128</v>
       </c>
       <c r="C176" t="s">
         <v>352</v>
@@ -4435,7 +4435,7 @@
         <v>353</v>
       </c>
       <c r="B177" t="n">
-        <v>4413</v>
+        <v>4447</v>
       </c>
       <c r="C177" t="s">
         <v>354</v>
@@ -4446,7 +4446,7 @@
         <v>355</v>
       </c>
       <c r="B178" t="n">
-        <v>5124</v>
+        <v>5134</v>
       </c>
       <c r="C178" t="s">
         <v>356</v>
@@ -4457,7 +4457,7 @@
         <v>357</v>
       </c>
       <c r="B179" t="n">
-        <v>6177</v>
+        <v>6174</v>
       </c>
       <c r="C179" t="s">
         <v>358</v>
@@ -4468,7 +4468,7 @@
         <v>359</v>
       </c>
       <c r="B180" t="n">
-        <v>14840</v>
+        <v>14827</v>
       </c>
       <c r="C180" t="s">
         <v>360</v>
@@ -4479,7 +4479,7 @@
         <v>361</v>
       </c>
       <c r="B181" t="n">
-        <v>13691</v>
+        <v>13649</v>
       </c>
       <c r="C181" t="s">
         <v>362</v>
@@ -4490,7 +4490,7 @@
         <v>363</v>
       </c>
       <c r="B182" t="n">
-        <v>13593</v>
+        <v>13660</v>
       </c>
       <c r="C182" t="s">
         <v>364</v>
@@ -4501,7 +4501,7 @@
         <v>365</v>
       </c>
       <c r="B183" t="n">
-        <v>5587</v>
+        <v>5597</v>
       </c>
       <c r="C183" t="s">
         <v>366</v>
@@ -4512,7 +4512,7 @@
         <v>367</v>
       </c>
       <c r="B184" t="n">
-        <v>6510</v>
+        <v>6544</v>
       </c>
       <c r="C184" t="s">
         <v>368</v>
@@ -4523,7 +4523,7 @@
         <v>369</v>
       </c>
       <c r="B185" t="n">
-        <v>2836</v>
+        <v>2822</v>
       </c>
       <c r="C185" t="s">
         <v>370</v>
@@ -4534,7 +4534,7 @@
         <v>371</v>
       </c>
       <c r="B186" t="n">
-        <v>1366</v>
+        <v>1254</v>
       </c>
       <c r="C186" t="s">
         <v>372</v>
@@ -4545,7 +4545,7 @@
         <v>373</v>
       </c>
       <c r="B187" t="n">
-        <v>6562</v>
+        <v>6455</v>
       </c>
       <c r="C187" t="s">
         <v>374</v>
@@ -4556,7 +4556,7 @@
         <v>375</v>
       </c>
       <c r="B188" t="n">
-        <v>2112</v>
+        <v>2142</v>
       </c>
       <c r="C188" t="s">
         <v>376</v>
@@ -4567,7 +4567,7 @@
         <v>377</v>
       </c>
       <c r="B189" t="n">
-        <v>3298</v>
+        <v>3311</v>
       </c>
       <c r="C189" t="s">
         <v>378</v>
@@ -4578,7 +4578,7 @@
         <v>379</v>
       </c>
       <c r="B190" t="n">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C190" t="s">
         <v>380</v>
@@ -4589,7 +4589,7 @@
         <v>381</v>
       </c>
       <c r="B191" t="n">
-        <v>27939</v>
+        <v>28039</v>
       </c>
       <c r="C191" t="s">
         <v>382</v>
@@ -4600,7 +4600,7 @@
         <v>383</v>
       </c>
       <c r="B192" t="n">
-        <v>26872</v>
+        <v>27005</v>
       </c>
       <c r="C192" t="s">
         <v>384</v>
@@ -4611,7 +4611,7 @@
         <v>385</v>
       </c>
       <c r="B193" t="n">
-        <v>59174</v>
+        <v>59830</v>
       </c>
       <c r="C193" t="s">
         <v>386</v>
@@ -4622,7 +4622,7 @@
         <v>387</v>
       </c>
       <c r="B194" t="n">
-        <v>66231</v>
+        <v>66758</v>
       </c>
       <c r="C194" t="s">
         <v>388</v>
@@ -4633,7 +4633,7 @@
         <v>389</v>
       </c>
       <c r="B195" t="n">
-        <v>48715</v>
+        <v>48870</v>
       </c>
       <c r="C195" t="s">
         <v>390</v>
@@ -4644,7 +4644,7 @@
         <v>391</v>
       </c>
       <c r="B196" t="n">
-        <v>27501</v>
+        <v>27569</v>
       </c>
       <c r="C196" t="s">
         <v>392</v>
@@ -4655,7 +4655,7 @@
         <v>393</v>
       </c>
       <c r="B197" t="n">
-        <v>37193</v>
+        <v>37289</v>
       </c>
       <c r="C197" t="s">
         <v>394</v>
@@ -4666,7 +4666,7 @@
         <v>395</v>
       </c>
       <c r="B198" t="n">
-        <v>56619</v>
+        <v>56866</v>
       </c>
       <c r="C198" t="s">
         <v>396</v>
@@ -4677,7 +4677,7 @@
         <v>397</v>
       </c>
       <c r="B199" t="n">
-        <v>13266</v>
+        <v>13333</v>
       </c>
       <c r="C199" t="s">
         <v>398</v>
@@ -4688,7 +4688,7 @@
         <v>399</v>
       </c>
       <c r="B200" t="n">
-        <v>2382</v>
+        <v>2389</v>
       </c>
       <c r="C200" t="s">
         <v>400</v>
@@ -4699,7 +4699,7 @@
         <v>401</v>
       </c>
       <c r="B201" t="n">
-        <v>14269</v>
+        <v>14310</v>
       </c>
       <c r="C201" t="s">
         <v>402</v>
@@ -4710,7 +4710,7 @@
         <v>403</v>
       </c>
       <c r="B202" t="n">
-        <v>10445</v>
+        <v>10446</v>
       </c>
       <c r="C202" t="s">
         <v>404</v>
@@ -4721,7 +4721,7 @@
         <v>405</v>
       </c>
       <c r="B203" t="n">
-        <v>4086</v>
+        <v>4067</v>
       </c>
       <c r="C203" t="s">
         <v>406</v>
@@ -4732,7 +4732,7 @@
         <v>407</v>
       </c>
       <c r="B204" t="n">
-        <v>6539</v>
+        <v>6558</v>
       </c>
       <c r="C204" t="s">
         <v>408</v>
@@ -4743,7 +4743,7 @@
         <v>409</v>
       </c>
       <c r="B205" t="n">
-        <v>10904</v>
+        <v>11135</v>
       </c>
       <c r="C205" t="s">
         <v>410</v>
@@ -4754,7 +4754,7 @@
         <v>411</v>
       </c>
       <c r="B206" t="n">
-        <v>2979</v>
+        <v>2981</v>
       </c>
       <c r="C206" t="s">
         <v>412</v>
@@ -4765,7 +4765,7 @@
         <v>413</v>
       </c>
       <c r="B207" t="n">
-        <v>1630</v>
+        <v>1646</v>
       </c>
       <c r="C207" t="s">
         <v>414</v>
@@ -4776,7 +4776,7 @@
         <v>415</v>
       </c>
       <c r="B208" t="n">
-        <v>5533</v>
+        <v>5529</v>
       </c>
       <c r="C208" t="s">
         <v>416</v>
@@ -4787,7 +4787,7 @@
         <v>417</v>
       </c>
       <c r="B209" t="n">
-        <v>2458</v>
+        <v>2473</v>
       </c>
       <c r="C209" t="s">
         <v>418</v>
@@ -4798,7 +4798,7 @@
         <v>419</v>
       </c>
       <c r="B210" t="n">
-        <v>1471</v>
+        <v>1486</v>
       </c>
       <c r="C210" t="s">
         <v>420</v>
@@ -4820,7 +4820,7 @@
         <v>423</v>
       </c>
       <c r="B212" t="n">
-        <v>2212</v>
+        <v>2238</v>
       </c>
       <c r="C212" t="s">
         <v>424</v>
@@ -4831,7 +4831,7 @@
         <v>425</v>
       </c>
       <c r="B213" t="n">
-        <v>3851</v>
+        <v>3861</v>
       </c>
       <c r="C213" t="s">
         <v>426</v>
@@ -4842,7 +4842,7 @@
         <v>427</v>
       </c>
       <c r="B214" t="n">
-        <v>6825</v>
+        <v>6687</v>
       </c>
       <c r="C214" t="s">
         <v>428</v>
@@ -4853,7 +4853,7 @@
         <v>429</v>
       </c>
       <c r="B215" t="n">
-        <v>24969</v>
+        <v>25419</v>
       </c>
       <c r="C215" t="s">
         <v>430</v>
@@ -4864,7 +4864,7 @@
         <v>431</v>
       </c>
       <c r="B216" t="n">
-        <v>46355</v>
+        <v>46568</v>
       </c>
       <c r="C216" t="s">
         <v>432</v>
@@ -4875,7 +4875,7 @@
         <v>433</v>
       </c>
       <c r="B217" t="n">
-        <v>116986</v>
+        <v>118221</v>
       </c>
       <c r="C217" t="s">
         <v>434</v>
@@ -4886,7 +4886,7 @@
         <v>435</v>
       </c>
       <c r="B218" t="n">
-        <v>23690</v>
+        <v>23768</v>
       </c>
       <c r="C218" t="s">
         <v>436</v>
@@ -4897,7 +4897,7 @@
         <v>437</v>
       </c>
       <c r="B219" t="n">
-        <v>9876</v>
+        <v>9880</v>
       </c>
       <c r="C219" t="s">
         <v>438</v>
@@ -4908,7 +4908,7 @@
         <v>439</v>
       </c>
       <c r="B220" t="n">
-        <v>9279</v>
+        <v>9329</v>
       </c>
       <c r="C220" t="s">
         <v>440</v>
@@ -4919,7 +4919,7 @@
         <v>441</v>
       </c>
       <c r="B221" t="n">
-        <v>2444</v>
+        <v>2492</v>
       </c>
       <c r="C221" t="s">
         <v>442</v>
@@ -4930,7 +4930,7 @@
         <v>443</v>
       </c>
       <c r="B222" t="n">
-        <v>2268</v>
+        <v>2285</v>
       </c>
       <c r="C222" t="s">
         <v>444</v>
@@ -4941,7 +4941,7 @@
         <v>445</v>
       </c>
       <c r="B223" t="n">
-        <v>6323</v>
+        <v>6464</v>
       </c>
       <c r="C223" t="s">
         <v>446</v>
@@ -4952,7 +4952,7 @@
         <v>447</v>
       </c>
       <c r="B224" t="n">
-        <v>6236</v>
+        <v>6260</v>
       </c>
       <c r="C224" t="s">
         <v>448</v>
@@ -4963,7 +4963,7 @@
         <v>449</v>
       </c>
       <c r="B225" t="n">
-        <v>11523</v>
+        <v>11734</v>
       </c>
       <c r="C225" t="s">
         <v>450</v>
@@ -4974,7 +4974,7 @@
         <v>451</v>
       </c>
       <c r="B226" t="n">
-        <v>5480</v>
+        <v>5413</v>
       </c>
       <c r="C226" t="s">
         <v>452</v>
@@ -4985,7 +4985,7 @@
         <v>453</v>
       </c>
       <c r="B227" t="n">
-        <v>1802</v>
+        <v>1778</v>
       </c>
       <c r="C227" t="s">
         <v>454</v>
@@ -4996,7 +4996,7 @@
         <v>455</v>
       </c>
       <c r="B228" t="n">
-        <v>1380</v>
+        <v>1399</v>
       </c>
       <c r="C228" t="s">
         <v>456</v>
@@ -5007,7 +5007,7 @@
         <v>457</v>
       </c>
       <c r="B229" t="n">
-        <v>3967</v>
+        <v>3828</v>
       </c>
       <c r="C229" t="s">
         <v>458</v>
@@ -5018,7 +5018,7 @@
         <v>459</v>
       </c>
       <c r="B230" t="n">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="C230" t="s">
         <v>460</v>
@@ -5040,7 +5040,7 @@
         <v>463</v>
       </c>
       <c r="B232" t="n">
-        <v>1011</v>
+        <v>1039</v>
       </c>
       <c r="C232" t="s">
         <v>464</v>
@@ -5051,7 +5051,7 @@
         <v>465</v>
       </c>
       <c r="B233" t="n">
-        <v>15452</v>
+        <v>15622</v>
       </c>
       <c r="C233" t="s">
         <v>466</v>
@@ -5062,7 +5062,7 @@
         <v>467</v>
       </c>
       <c r="B234" t="n">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="C234" t="s">
         <v>468</v>
@@ -5073,7 +5073,7 @@
         <v>469</v>
       </c>
       <c r="B235" t="n">
-        <v>10835</v>
+        <v>10869</v>
       </c>
       <c r="C235" t="s">
         <v>470</v>
@@ -5084,7 +5084,7 @@
         <v>471</v>
       </c>
       <c r="B236" t="n">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="C236" t="s">
         <v>472</v>
@@ -5095,7 +5095,7 @@
         <v>473</v>
       </c>
       <c r="B237" t="n">
-        <v>6192</v>
+        <v>6163</v>
       </c>
       <c r="C237" t="s">
         <v>474</v>
@@ -5106,7 +5106,7 @@
         <v>475</v>
       </c>
       <c r="B238" t="n">
-        <v>1873</v>
+        <v>1902</v>
       </c>
       <c r="C238" t="s">
         <v>476</v>
@@ -5117,7 +5117,7 @@
         <v>477</v>
       </c>
       <c r="B239" t="n">
-        <v>291940</v>
+        <v>293709</v>
       </c>
       <c r="C239" t="s">
         <v>478</v>
@@ -5128,7 +5128,7 @@
         <v>479</v>
       </c>
       <c r="B240" t="n">
-        <v>17349</v>
+        <v>17419</v>
       </c>
       <c r="C240" t="s">
         <v>480</v>
@@ -5139,7 +5139,7 @@
         <v>481</v>
       </c>
       <c r="B241" t="n">
-        <v>4072</v>
+        <v>4093</v>
       </c>
       <c r="C241" t="s">
         <v>482</v>
@@ -5150,7 +5150,7 @@
         <v>483</v>
       </c>
       <c r="B242" t="n">
-        <v>5742</v>
+        <v>5752</v>
       </c>
       <c r="C242" t="s">
         <v>484</v>
@@ -5161,7 +5161,7 @@
         <v>485</v>
       </c>
       <c r="B243" t="n">
-        <v>12268</v>
+        <v>12365</v>
       </c>
       <c r="C243" t="s">
         <v>486</v>
@@ -5172,7 +5172,7 @@
         <v>487</v>
       </c>
       <c r="B244" t="n">
-        <v>19287</v>
+        <v>19350</v>
       </c>
       <c r="C244" t="s">
         <v>488</v>
@@ -5183,7 +5183,7 @@
         <v>489</v>
       </c>
       <c r="B245" t="n">
-        <v>3203</v>
+        <v>3208</v>
       </c>
       <c r="C245" t="s">
         <v>490</v>
@@ -5194,7 +5194,7 @@
         <v>491</v>
       </c>
       <c r="B246" t="n">
-        <v>2922</v>
+        <v>2986</v>
       </c>
       <c r="C246" t="s">
         <v>492</v>
@@ -5205,7 +5205,7 @@
         <v>493</v>
       </c>
       <c r="B247" t="n">
-        <v>13089</v>
+        <v>13175</v>
       </c>
       <c r="C247" t="s">
         <v>494</v>
@@ -5216,7 +5216,7 @@
         <v>495</v>
       </c>
       <c r="B248" t="n">
-        <v>11017</v>
+        <v>10981</v>
       </c>
       <c r="C248" t="s">
         <v>496</v>
@@ -5227,7 +5227,7 @@
         <v>497</v>
       </c>
       <c r="B249" t="n">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C249" t="s">
         <v>498</v>
@@ -5238,7 +5238,7 @@
         <v>499</v>
       </c>
       <c r="B250" t="n">
-        <v>1089</v>
+        <v>1100</v>
       </c>
       <c r="C250" t="s">
         <v>500</v>
@@ -5249,7 +5249,7 @@
         <v>501</v>
       </c>
       <c r="B251" t="n">
-        <v>16471</v>
+        <v>16436</v>
       </c>
       <c r="C251" t="s">
         <v>502</v>
@@ -5260,7 +5260,7 @@
         <v>503</v>
       </c>
       <c r="B252" t="n">
-        <v>8496</v>
+        <v>8517</v>
       </c>
       <c r="C252" t="s">
         <v>504</v>
@@ -5271,7 +5271,7 @@
         <v>505</v>
       </c>
       <c r="B253" t="n">
-        <v>2502</v>
+        <v>2491</v>
       </c>
       <c r="C253" t="s">
         <v>506</v>
@@ -5282,7 +5282,7 @@
         <v>507</v>
       </c>
       <c r="B254" t="n">
-        <v>26080</v>
+        <v>26342</v>
       </c>
       <c r="C254" t="s">
         <v>508</v>
@@ -5293,7 +5293,7 @@
         <v>509</v>
       </c>
       <c r="B255" t="n">
-        <v>5300</v>
+        <v>5437</v>
       </c>
       <c r="C255" t="s">
         <v>510</v>
@@ -5304,7 +5304,7 @@
         <v>511</v>
       </c>
       <c r="B256" t="n">
-        <v>39768</v>
+        <v>40105</v>
       </c>
       <c r="C256" t="s">
         <v>512</v>
@@ -5315,7 +5315,7 @@
         <v>513</v>
       </c>
       <c r="B257" t="n">
-        <v>30145</v>
+        <v>30377</v>
       </c>
       <c r="C257" t="s">
         <v>514</v>
@@ -5326,7 +5326,7 @@
         <v>515</v>
       </c>
       <c r="B258" t="n">
-        <v>3852</v>
+        <v>3875</v>
       </c>
       <c r="C258" t="s">
         <v>516</v>
@@ -5337,7 +5337,7 @@
         <v>517</v>
       </c>
       <c r="B259" t="n">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C259" t="s">
         <v>518</v>
@@ -5348,7 +5348,7 @@
         <v>519</v>
       </c>
       <c r="B260" t="n">
-        <v>8200</v>
+        <v>8172</v>
       </c>
       <c r="C260" t="s">
         <v>520</v>
@@ -5359,7 +5359,7 @@
         <v>521</v>
       </c>
       <c r="B261" t="n">
-        <v>29986</v>
+        <v>30169</v>
       </c>
       <c r="C261" t="s">
         <v>522</v>
@@ -5370,7 +5370,7 @@
         <v>523</v>
       </c>
       <c r="B262" t="n">
-        <v>2881</v>
+        <v>2915</v>
       </c>
       <c r="C262" t="s">
         <v>524</v>
@@ -5381,7 +5381,7 @@
         <v>525</v>
       </c>
       <c r="B263" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C263" t="s">
         <v>526</v>
@@ -5392,7 +5392,7 @@
         <v>527</v>
       </c>
       <c r="B264" t="n">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="C264" t="s">
         <v>528</v>
@@ -5403,7 +5403,7 @@
         <v>529</v>
       </c>
       <c r="B265" t="n">
-        <v>2234</v>
+        <v>2260</v>
       </c>
       <c r="C265" t="s">
         <v>530</v>
@@ -5414,7 +5414,7 @@
         <v>531</v>
       </c>
       <c r="B266" t="n">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C266" t="s">
         <v>532</v>
@@ -5425,7 +5425,7 @@
         <v>533</v>
       </c>
       <c r="B267" t="n">
-        <v>1268</v>
+        <v>1281</v>
       </c>
       <c r="C267" t="s">
         <v>534</v>
@@ -5436,7 +5436,7 @@
         <v>535</v>
       </c>
       <c r="B268" t="n">
-        <v>3879</v>
+        <v>3894</v>
       </c>
       <c r="C268" t="s">
         <v>536</v>
@@ -5447,7 +5447,7 @@
         <v>537</v>
       </c>
       <c r="B269" t="n">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C269" t="s">
         <v>538</v>
@@ -5458,7 +5458,7 @@
         <v>539</v>
       </c>
       <c r="B270" t="n">
-        <v>12319</v>
+        <v>12496</v>
       </c>
       <c r="C270" t="s">
         <v>540</v>
@@ -5469,7 +5469,7 @@
         <v>541</v>
       </c>
       <c r="B271" t="n">
-        <v>1800</v>
+        <v>1836</v>
       </c>
       <c r="C271" t="s">
         <v>542</v>
@@ -5480,7 +5480,7 @@
         <v>543</v>
       </c>
       <c r="B272" t="n">
-        <v>2160</v>
+        <v>2188</v>
       </c>
       <c r="C272" t="s">
         <v>544</v>
@@ -5491,7 +5491,7 @@
         <v>545</v>
       </c>
       <c r="B273" t="n">
-        <v>5239</v>
+        <v>5213</v>
       </c>
       <c r="C273" t="s">
         <v>546</v>
@@ -5502,7 +5502,7 @@
         <v>547</v>
       </c>
       <c r="B274" t="n">
-        <v>5371</v>
+        <v>5432</v>
       </c>
       <c r="C274" t="s">
         <v>548</v>
@@ -5513,7 +5513,7 @@
         <v>549</v>
       </c>
       <c r="B275" t="n">
-        <v>2986</v>
+        <v>2930</v>
       </c>
       <c r="C275" t="s">
         <v>550</v>
@@ -5524,7 +5524,7 @@
         <v>551</v>
       </c>
       <c r="B276" t="n">
-        <v>2869</v>
+        <v>2924</v>
       </c>
       <c r="C276" t="s">
         <v>552</v>
@@ -5535,7 +5535,7 @@
         <v>553</v>
       </c>
       <c r="B277" t="n">
-        <v>22450</v>
+        <v>22662</v>
       </c>
       <c r="C277" t="s">
         <v>554</v>
@@ -5546,7 +5546,7 @@
         <v>555</v>
       </c>
       <c r="B278" t="n">
-        <v>3392</v>
+        <v>3361</v>
       </c>
       <c r="C278" t="s">
         <v>556</v>
@@ -5557,7 +5557,7 @@
         <v>557</v>
       </c>
       <c r="B279" t="n">
-        <v>9610</v>
+        <v>9655</v>
       </c>
       <c r="C279" t="s">
         <v>558</v>
@@ -5568,7 +5568,7 @@
         <v>559</v>
       </c>
       <c r="B280" t="n">
-        <v>5926</v>
+        <v>5936</v>
       </c>
       <c r="C280" t="s">
         <v>560</v>
@@ -5579,7 +5579,7 @@
         <v>561</v>
       </c>
       <c r="B281" t="n">
-        <v>7271</v>
+        <v>7311</v>
       </c>
       <c r="C281" t="s">
         <v>562</v>
@@ -5590,7 +5590,7 @@
         <v>563</v>
       </c>
       <c r="B282" t="n">
-        <v>214565</v>
+        <v>216518</v>
       </c>
       <c r="C282" t="s">
         <v>564</v>
@@ -5601,7 +5601,7 @@
         <v>565</v>
       </c>
       <c r="B283" t="n">
-        <v>24032</v>
+        <v>24064</v>
       </c>
       <c r="C283" t="s">
         <v>566</v>
@@ -5612,7 +5612,7 @@
         <v>567</v>
       </c>
       <c r="B284" t="n">
-        <v>15083</v>
+        <v>15154</v>
       </c>
       <c r="C284" t="s">
         <v>568</v>
@@ -5623,7 +5623,7 @@
         <v>569</v>
       </c>
       <c r="B285" t="n">
-        <v>5453</v>
+        <v>5655</v>
       </c>
       <c r="C285" t="s">
         <v>570</v>
@@ -5634,7 +5634,7 @@
         <v>571</v>
       </c>
       <c r="B286" t="n">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="C286" t="s">
         <v>572</v>
@@ -5645,7 +5645,7 @@
         <v>573</v>
       </c>
       <c r="B287" t="n">
-        <v>7389</v>
+        <v>7408</v>
       </c>
       <c r="C287" t="s">
         <v>574</v>
@@ -5656,7 +5656,7 @@
         <v>575</v>
       </c>
       <c r="B288" t="n">
-        <v>2484</v>
+        <v>2513</v>
       </c>
       <c r="C288" t="s">
         <v>576</v>
@@ -5667,7 +5667,7 @@
         <v>577</v>
       </c>
       <c r="B289" t="n">
-        <v>5685</v>
+        <v>5681</v>
       </c>
       <c r="C289" t="s">
         <v>578</v>
@@ -5678,7 +5678,7 @@
         <v>579</v>
       </c>
       <c r="B290" t="n">
-        <v>2035</v>
+        <v>2048</v>
       </c>
       <c r="C290" t="s">
         <v>580</v>
@@ -5689,7 +5689,7 @@
         <v>581</v>
       </c>
       <c r="B291" t="n">
-        <v>6140</v>
+        <v>6141</v>
       </c>
       <c r="C291" t="s">
         <v>582</v>
@@ -5700,7 +5700,7 @@
         <v>583</v>
       </c>
       <c r="B292" t="n">
-        <v>17560</v>
+        <v>17812</v>
       </c>
       <c r="C292" t="s">
         <v>584</v>
@@ -5711,7 +5711,7 @@
         <v>585</v>
       </c>
       <c r="B293" t="n">
-        <v>8484</v>
+        <v>8521</v>
       </c>
       <c r="C293" t="s">
         <v>586</v>
@@ -5722,7 +5722,7 @@
         <v>587</v>
       </c>
       <c r="B294" t="n">
-        <v>14783</v>
+        <v>15023</v>
       </c>
       <c r="C294" t="s">
         <v>588</v>
@@ -5733,7 +5733,7 @@
         <v>589</v>
       </c>
       <c r="B295" t="n">
-        <v>4216</v>
+        <v>4233</v>
       </c>
       <c r="C295" t="s">
         <v>590</v>
@@ -5744,7 +5744,7 @@
         <v>591</v>
       </c>
       <c r="B296" t="n">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="C296" t="s">
         <v>592</v>
@@ -5755,7 +5755,7 @@
         <v>593</v>
       </c>
       <c r="B297" t="n">
-        <v>2454</v>
+        <v>2472</v>
       </c>
       <c r="C297" t="s">
         <v>594</v>
@@ -5766,7 +5766,7 @@
         <v>595</v>
       </c>
       <c r="B298" t="n">
-        <v>24717</v>
+        <v>24927</v>
       </c>
       <c r="C298" t="s">
         <v>596</v>
@@ -5777,7 +5777,7 @@
         <v>597</v>
       </c>
       <c r="B299" t="n">
-        <v>2645</v>
+        <v>2661</v>
       </c>
       <c r="C299" t="s">
         <v>598</v>
@@ -5788,7 +5788,7 @@
         <v>599</v>
       </c>
       <c r="B300" t="n">
-        <v>20574</v>
+        <v>20732</v>
       </c>
       <c r="C300" t="s">
         <v>600</v>
@@ -5799,7 +5799,7 @@
         <v>601</v>
       </c>
       <c r="B301" t="n">
-        <v>15193</v>
+        <v>15412</v>
       </c>
       <c r="C301" t="s">
         <v>602</v>
@@ -5810,7 +5810,7 @@
         <v>603</v>
       </c>
       <c r="B302" t="n">
-        <v>2114</v>
+        <v>2138</v>
       </c>
       <c r="C302" t="s">
         <v>604</v>
@@ -5821,7 +5821,7 @@
         <v>605</v>
       </c>
       <c r="B303" t="n">
-        <v>1301</v>
+        <v>1316</v>
       </c>
       <c r="C303" t="s">
         <v>606</v>
@@ -5832,7 +5832,7 @@
         <v>607</v>
       </c>
       <c r="B304" t="n">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="C304" t="s">
         <v>608</v>
@@ -5843,7 +5843,7 @@
         <v>609</v>
       </c>
       <c r="B305" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C305" t="s">
         <v>610</v>
@@ -5854,7 +5854,7 @@
         <v>611</v>
       </c>
       <c r="B306" t="n">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="C306" t="s">
         <v>612</v>
@@ -5865,7 +5865,7 @@
         <v>613</v>
       </c>
       <c r="B307" t="n">
-        <v>1222</v>
+        <v>1235</v>
       </c>
       <c r="C307" t="s">
         <v>614</v>
@@ -5876,7 +5876,7 @@
         <v>615</v>
       </c>
       <c r="B308" t="n">
-        <v>3924</v>
+        <v>3946</v>
       </c>
       <c r="C308" t="s">
         <v>616</v>
@@ -5887,7 +5887,7 @@
         <v>617</v>
       </c>
       <c r="B309" t="n">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="C309" t="s">
         <v>618</v>
@@ -5898,7 +5898,7 @@
         <v>619</v>
       </c>
       <c r="B310" t="n">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="C310" t="s">
         <v>620</v>
@@ -5909,7 +5909,7 @@
         <v>621</v>
       </c>
       <c r="B311" t="n">
-        <v>6938</v>
+        <v>7031</v>
       </c>
       <c r="C311" t="s">
         <v>622</v>
@@ -5920,7 +5920,7 @@
         <v>623</v>
       </c>
       <c r="B312" t="n">
-        <v>10023</v>
+        <v>10042</v>
       </c>
       <c r="C312" t="s">
         <v>624</v>
@@ -5931,7 +5931,7 @@
         <v>625</v>
       </c>
       <c r="B313" t="n">
-        <v>6093</v>
+        <v>6134</v>
       </c>
       <c r="C313" t="s">
         <v>626</v>
@@ -5942,7 +5942,7 @@
         <v>627</v>
       </c>
       <c r="B314" t="n">
-        <v>5323</v>
+        <v>5414</v>
       </c>
       <c r="C314" t="s">
         <v>628</v>
@@ -5953,7 +5953,7 @@
         <v>629</v>
       </c>
       <c r="B315" t="n">
-        <v>10522</v>
+        <v>10627</v>
       </c>
       <c r="C315" t="s">
         <v>630</v>
@@ -5964,7 +5964,7 @@
         <v>631</v>
       </c>
       <c r="B316" t="n">
-        <v>4339</v>
+        <v>4342</v>
       </c>
       <c r="C316" t="s">
         <v>632</v>
@@ -5975,7 +5975,7 @@
         <v>633</v>
       </c>
       <c r="B317" t="n">
-        <v>18793</v>
+        <v>18798</v>
       </c>
       <c r="C317" t="s">
         <v>634</v>
@@ -5986,7 +5986,7 @@
         <v>635</v>
       </c>
       <c r="B318" t="n">
-        <v>9968</v>
+        <v>9921</v>
       </c>
       <c r="C318" t="s">
         <v>636</v>
@@ -5997,7 +5997,7 @@
         <v>637</v>
       </c>
       <c r="B319" t="n">
-        <v>1958</v>
+        <v>1937</v>
       </c>
       <c r="C319" t="s">
         <v>638</v>
@@ -6008,7 +6008,7 @@
         <v>639</v>
       </c>
       <c r="B320" t="n">
-        <v>78745</v>
+        <v>79421</v>
       </c>
       <c r="C320" t="s">
         <v>640</v>
@@ -6019,7 +6019,7 @@
         <v>641</v>
       </c>
       <c r="B321" t="n">
-        <v>25056</v>
+        <v>25167</v>
       </c>
       <c r="C321" t="s">
         <v>642</v>
@@ -6030,7 +6030,7 @@
         <v>643</v>
       </c>
       <c r="B322" t="n">
-        <v>2845</v>
+        <v>2852</v>
       </c>
       <c r="C322" t="s">
         <v>644</v>
@@ -6041,7 +6041,7 @@
         <v>645</v>
       </c>
       <c r="B323" t="n">
-        <v>4281</v>
+        <v>4209</v>
       </c>
       <c r="C323" t="s">
         <v>646</v>
@@ -6052,7 +6052,7 @@
         <v>647</v>
       </c>
       <c r="B324" t="n">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="C324" t="s">
         <v>648</v>
@@ -6063,7 +6063,7 @@
         <v>649</v>
       </c>
       <c r="B325" t="n">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="C325" t="s">
         <v>650</v>
@@ -6074,7 +6074,7 @@
         <v>651</v>
       </c>
       <c r="B326" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C326" t="s">
         <v>652</v>
@@ -6085,7 +6085,7 @@
         <v>653</v>
       </c>
       <c r="B327" t="n">
-        <v>3986</v>
+        <v>3961</v>
       </c>
       <c r="C327" t="s">
         <v>654</v>
@@ -6096,7 +6096,7 @@
         <v>655</v>
       </c>
       <c r="B328" t="n">
-        <v>2069</v>
+        <v>2116</v>
       </c>
       <c r="C328" t="s">
         <v>656</v>
@@ -6107,7 +6107,7 @@
         <v>657</v>
       </c>
       <c r="B329" t="n">
-        <v>6714</v>
+        <v>6794</v>
       </c>
       <c r="C329" t="s">
         <v>658</v>
@@ -6118,7 +6118,7 @@
         <v>659</v>
       </c>
       <c r="B330" t="n">
-        <v>3485</v>
+        <v>3533</v>
       </c>
       <c r="C330" t="s">
         <v>660</v>
@@ -6129,7 +6129,7 @@
         <v>661</v>
       </c>
       <c r="B331" t="n">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C331" t="s">
         <v>662</v>
@@ -6140,7 +6140,7 @@
         <v>663</v>
       </c>
       <c r="B332" t="n">
-        <v>14894</v>
+        <v>14948</v>
       </c>
       <c r="C332" t="s">
         <v>664</v>
@@ -6151,7 +6151,7 @@
         <v>665</v>
       </c>
       <c r="B333" t="n">
-        <v>5571</v>
+        <v>5595</v>
       </c>
       <c r="C333" t="s">
         <v>666</v>
@@ -6162,7 +6162,7 @@
         <v>667</v>
       </c>
       <c r="B334" t="n">
-        <v>2237</v>
+        <v>2223</v>
       </c>
       <c r="C334" t="s">
         <v>668</v>
@@ -6173,7 +6173,7 @@
         <v>669</v>
       </c>
       <c r="B335" t="n">
-        <v>2743</v>
+        <v>2734</v>
       </c>
       <c r="C335" t="s">
         <v>670</v>
@@ -6184,7 +6184,7 @@
         <v>671</v>
       </c>
       <c r="B336" t="n">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="C336" t="s">
         <v>672</v>
@@ -6195,7 +6195,7 @@
         <v>673</v>
       </c>
       <c r="B337" t="n">
-        <v>1974</v>
+        <v>1955</v>
       </c>
       <c r="C337" t="s">
         <v>674</v>
@@ -6206,7 +6206,7 @@
         <v>675</v>
       </c>
       <c r="B338" t="n">
-        <v>2794</v>
+        <v>2784</v>
       </c>
       <c r="C338" t="s">
         <v>676</v>
@@ -6217,7 +6217,7 @@
         <v>677</v>
       </c>
       <c r="B339" t="n">
-        <v>4794</v>
+        <v>4810</v>
       </c>
       <c r="C339" t="s">
         <v>678</v>
@@ -6228,7 +6228,7 @@
         <v>679</v>
       </c>
       <c r="B340" t="n">
-        <v>1157</v>
+        <v>1131</v>
       </c>
       <c r="C340" t="s">
         <v>680</v>
@@ -6239,7 +6239,7 @@
         <v>681</v>
       </c>
       <c r="B341" t="n">
-        <v>21708</v>
+        <v>21877</v>
       </c>
       <c r="C341" t="s">
         <v>682</v>
@@ -6250,7 +6250,7 @@
         <v>683</v>
       </c>
       <c r="B342" t="n">
-        <v>11338</v>
+        <v>11324</v>
       </c>
       <c r="C342" t="s">
         <v>684</v>
@@ -6261,7 +6261,7 @@
         <v>685</v>
       </c>
       <c r="B343" t="n">
-        <v>10063</v>
+        <v>9963</v>
       </c>
       <c r="C343" t="s">
         <v>686</v>
@@ -6272,7 +6272,7 @@
         <v>687</v>
       </c>
       <c r="B344" t="n">
-        <v>5807</v>
+        <v>5777</v>
       </c>
       <c r="C344" t="s">
         <v>688</v>
@@ -6283,7 +6283,7 @@
         <v>689</v>
       </c>
       <c r="B345" t="n">
-        <v>2565</v>
+        <v>2524</v>
       </c>
       <c r="C345" t="s">
         <v>690</v>
@@ -6294,7 +6294,7 @@
         <v>691</v>
       </c>
       <c r="B346" t="n">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="C346" t="s">
         <v>692</v>
@@ -6316,7 +6316,7 @@
         <v>695</v>
       </c>
       <c r="B348" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C348" t="s">
         <v>696</v>
@@ -6327,7 +6327,7 @@
         <v>697</v>
       </c>
       <c r="B349" t="n">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="C349" t="s">
         <v>698</v>
@@ -6338,7 +6338,7 @@
         <v>699</v>
       </c>
       <c r="B350" t="n">
-        <v>2951</v>
+        <v>2956</v>
       </c>
       <c r="C350" t="s">
         <v>700</v>
@@ -6349,7 +6349,7 @@
         <v>701</v>
       </c>
       <c r="B351" t="n">
-        <v>3889</v>
+        <v>3896</v>
       </c>
       <c r="C351" t="s">
         <v>702</v>
@@ -6360,7 +6360,7 @@
         <v>703</v>
       </c>
       <c r="B352" t="n">
-        <v>1215</v>
+        <v>1238</v>
       </c>
       <c r="C352" t="s">
         <v>704</v>
@@ -6371,7 +6371,7 @@
         <v>705</v>
       </c>
       <c r="B353" t="n">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="C353" t="s">
         <v>706</v>
@@ -6382,7 +6382,7 @@
         <v>707</v>
       </c>
       <c r="B354" t="n">
-        <v>2807</v>
+        <v>2798</v>
       </c>
       <c r="C354" t="s">
         <v>708</v>
@@ -6393,7 +6393,7 @@
         <v>709</v>
       </c>
       <c r="B355" t="n">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C355" t="s">
         <v>710</v>
@@ -6404,7 +6404,7 @@
         <v>711</v>
       </c>
       <c r="B356" t="n">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="C356" t="s">
         <v>712</v>
@@ -6415,7 +6415,7 @@
         <v>713</v>
       </c>
       <c r="B357" t="n">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="C357" t="s">
         <v>714</v>
@@ -6426,7 +6426,7 @@
         <v>715</v>
       </c>
       <c r="B358" t="n">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="C358" t="s">
         <v>716</v>
